--- a/banks_top20_valid_20251021.xlsx
+++ b/banks_top20_valid_20251021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="105">
   <si>
     <t>№</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>ВСТ Банк (Банк Восток)</t>
-  </si>
-  <si>
-    <t>Особливий</t>
   </si>
   <si>
     <t>Простий</t>
@@ -828,8 +825,8 @@
   <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T56" sqref="T56"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1816,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
@@ -2397,7 +2394,7 @@
         <v>54</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N23" s="3">
         <v>12</v>
@@ -2407,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="3">
         <v>12</v>
@@ -2417,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T23" s="3">
         <v>11.5</v>
@@ -2427,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W23" s="3">
         <v>1</v>
@@ -2467,7 +2464,7 @@
         <v>54</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -2477,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="3">
         <v>1</v>
@@ -2487,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T24" s="3">
         <v>0.15</v>
@@ -2497,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W24" s="3">
         <v>0.1</v>
@@ -3221,7 +3218,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2">
         <v>106</v>
@@ -3258,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T35" s="3">
         <v>14.75</v>
@@ -3268,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W35" s="3">
         <v>14.5</v>
@@ -3680,7 +3677,7 @@
         <v>54</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N42" s="3">
         <v>2.5</v>
@@ -4236,7 +4233,7 @@
         <v>54</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N50" s="3">
         <v>17.25</v>
@@ -4246,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q50" s="3">
         <v>17</v>
@@ -4256,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T50" s="3">
         <v>16.899999999999999</v>
@@ -4524,7 +4521,7 @@
         <v>54</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N54" s="3">
         <v>2.25</v>
@@ -4594,7 +4591,7 @@
         <v>54</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N55" s="3">
         <v>1.4</v>
@@ -4624,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W55" s="3">
         <v>1.3</v>
@@ -4888,7 +4885,7 @@
         <v>54</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N59" s="3">
         <v>14</v>
@@ -4904,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T59" s="3">
         <v>14.75</v>
@@ -4913,11 +4910,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V59" s="5" t="s">
+      <c r="V59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W59" s="3">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="X59" t="b">
         <f t="shared" si="3"/>
@@ -4951,7 +4948,7 @@
         <v>54</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N60" s="3">
         <v>1.5</v>
@@ -4965,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T60" s="3">
         <v>1</v>
@@ -4975,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W60" s="3">
         <v>0.5</v>
@@ -5012,7 +5009,7 @@
         <v>54</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N61" s="3">
         <v>0.5</v>
@@ -5026,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T61" s="3">
         <v>0.5</v>
@@ -5036,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W61" s="3">
         <v>0.5</v>
@@ -5262,48 +5259,48 @@
     <hyperlink ref="M56" r:id="rId179"/>
     <hyperlink ref="M57" r:id="rId180"/>
     <hyperlink ref="M58" r:id="rId181"/>
-    <hyperlink ref="V59" r:id="rId182" location="/"/>
-    <hyperlink ref="M59" r:id="rId183" location="/"/>
-    <hyperlink ref="S59" r:id="rId184" location="/"/>
-    <hyperlink ref="M60" r:id="rId185" location="/"/>
-    <hyperlink ref="M61" r:id="rId186" location="/"/>
-    <hyperlink ref="S60" r:id="rId187" location="/"/>
-    <hyperlink ref="S61" r:id="rId188" location="/"/>
-    <hyperlink ref="V60" r:id="rId189" location="/"/>
-    <hyperlink ref="V61" r:id="rId190" location="/"/>
-    <hyperlink ref="V4" r:id="rId191"/>
-    <hyperlink ref="S4" r:id="rId192"/>
-    <hyperlink ref="S3" r:id="rId193"/>
-    <hyperlink ref="M3" r:id="rId194"/>
-    <hyperlink ref="M4" r:id="rId195"/>
-    <hyperlink ref="V3" r:id="rId196"/>
-    <hyperlink ref="V2" r:id="rId197"/>
-    <hyperlink ref="M14" r:id="rId198"/>
-    <hyperlink ref="V23" r:id="rId199"/>
-    <hyperlink ref="S23" r:id="rId200"/>
-    <hyperlink ref="P23" r:id="rId201"/>
-    <hyperlink ref="M23" r:id="rId202"/>
-    <hyperlink ref="M24" r:id="rId203"/>
-    <hyperlink ref="P24" r:id="rId204"/>
-    <hyperlink ref="S24" r:id="rId205"/>
-    <hyperlink ref="V24" r:id="rId206"/>
-    <hyperlink ref="S26" r:id="rId207"/>
-    <hyperlink ref="M29" r:id="rId208"/>
-    <hyperlink ref="V36" r:id="rId209"/>
-    <hyperlink ref="V37" r:id="rId210"/>
-    <hyperlink ref="S35:S37" r:id="rId211" display="Прибутковий плюс - від 500 000,01"/>
-    <hyperlink ref="V35" r:id="rId212" display="Прибутковий плюс"/>
-    <hyperlink ref="S39" r:id="rId213"/>
-    <hyperlink ref="S40" r:id="rId214"/>
-    <hyperlink ref="M42" r:id="rId215"/>
-    <hyperlink ref="P47" r:id="rId216"/>
-    <hyperlink ref="M50" r:id="rId217"/>
-    <hyperlink ref="P50" r:id="rId218"/>
-    <hyperlink ref="S50" r:id="rId219"/>
-    <hyperlink ref="M53" r:id="rId220"/>
-    <hyperlink ref="M55" r:id="rId221"/>
-    <hyperlink ref="M54" r:id="rId222"/>
-    <hyperlink ref="V55" r:id="rId223"/>
+    <hyperlink ref="M59" r:id="rId182" location="/"/>
+    <hyperlink ref="S59" r:id="rId183" location="/"/>
+    <hyperlink ref="M60" r:id="rId184" location="/"/>
+    <hyperlink ref="M61" r:id="rId185" location="/"/>
+    <hyperlink ref="S60" r:id="rId186" location="/"/>
+    <hyperlink ref="S61" r:id="rId187" location="/"/>
+    <hyperlink ref="V60" r:id="rId188" location="/"/>
+    <hyperlink ref="V61" r:id="rId189" location="/"/>
+    <hyperlink ref="V4" r:id="rId190"/>
+    <hyperlink ref="S4" r:id="rId191"/>
+    <hyperlink ref="S3" r:id="rId192"/>
+    <hyperlink ref="M3" r:id="rId193"/>
+    <hyperlink ref="M4" r:id="rId194"/>
+    <hyperlink ref="V3" r:id="rId195"/>
+    <hyperlink ref="V2" r:id="rId196"/>
+    <hyperlink ref="M14" r:id="rId197"/>
+    <hyperlink ref="V23" r:id="rId198"/>
+    <hyperlink ref="S23" r:id="rId199"/>
+    <hyperlink ref="P23" r:id="rId200"/>
+    <hyperlink ref="M23" r:id="rId201"/>
+    <hyperlink ref="M24" r:id="rId202"/>
+    <hyperlink ref="P24" r:id="rId203"/>
+    <hyperlink ref="S24" r:id="rId204"/>
+    <hyperlink ref="V24" r:id="rId205"/>
+    <hyperlink ref="S26" r:id="rId206"/>
+    <hyperlink ref="M29" r:id="rId207"/>
+    <hyperlink ref="V36" r:id="rId208"/>
+    <hyperlink ref="V37" r:id="rId209"/>
+    <hyperlink ref="S35:S37" r:id="rId210" display="Прибутковий плюс - від 500 000,01"/>
+    <hyperlink ref="V35" r:id="rId211" display="Прибутковий плюс"/>
+    <hyperlink ref="S39" r:id="rId212"/>
+    <hyperlink ref="S40" r:id="rId213"/>
+    <hyperlink ref="M42" r:id="rId214"/>
+    <hyperlink ref="P47" r:id="rId215"/>
+    <hyperlink ref="M50" r:id="rId216"/>
+    <hyperlink ref="P50" r:id="rId217"/>
+    <hyperlink ref="S50" r:id="rId218"/>
+    <hyperlink ref="M53" r:id="rId219"/>
+    <hyperlink ref="M55" r:id="rId220"/>
+    <hyperlink ref="M54" r:id="rId221"/>
+    <hyperlink ref="V55" r:id="rId222"/>
+    <hyperlink ref="V59" r:id="rId223" location="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId224"/>
